--- a/biology/Zoologie/Hatari_!/Hatari_!.xlsx
+++ b/biology/Zoologie/Hatari_!/Hatari_!.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hatari ! est un film d'aventure américain réalisé par Howard Hawks, sorti en 1962. Le terme Hatari (ou hatwari) signifie en swahili : « Attention, danger ! »[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hatari ! est un film d'aventure américain réalisé par Howard Hawks, sorti en 1962. Le terme Hatari (ou hatwari) signifie en swahili : « Attention, danger ! ».
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hatari ! C'est l'histoire d'un groupe d'aventuriers résidant en Afrique de l'Est, qui s'est engagé dans l'activité lucrative mais dangereuse d'attraper des animaux sauvages et exotiques pour les vendre à des zoos dans le monde entier. Nommés « Momella Game Ltd. », ils opèrent depuis un camp près de la ville d'Arusha (dans l'actuelle Tanzanie). Le responsable du groupe est Sean Mercer (John Wayne) ; les autres sont : le vétéran de safari Little Wolf alias « l'Indien » (Bruce Cabot), les conducteurs « Pockets » (Red Buttons) et Kurt (Hardy Krüger), le roper Luis Francisco Garcia Lopes, un ancien matador mexicain (Valentin de Vargas), et Betty (Michèle Girardon), une jeune femme, la « patronne » de fait car son défunt père a dirigé le groupe et elle a grandi avec eux.
 Leur méthode (montrée dans plusieurs scènes) est de poursuivre l'animal choisi à travers les plaines avec un camion, conduit par Pockets, un ancien chauffeur de taxi de Brooklyn. Sean est debout dans le plateau du camion avec un nœud coulant au bout d'une perche, attrapant les animaux par leur cou. Pour les animaux de petite taille, Sean est assis sur un siège placé sur l'aile gauche du camion. Pendant ce temps là, Kurt, ancien conducteur de courses automobiles allemand, pilote un véhicule plus petit et maniable en compagnie de l'Indien, afin de forcer les animaux à se rabattre vers le camion de capture. Une fois l'animal attrapé, Luis, expert en cordes, lui ligote les jambes et l'immobilise. L'animal est alors mis dans une caisse de voyage transportée par Betty dans un troisième véhicule jusqu'au camp où les animaux sont gardés dans des parcs jusqu'à la fin de la saison de chasse. Betty était la fille de François Delacourt, l'homme qui était autrefois à la tête du groupe, et qui fut tué par un rhinocéros. 
@@ -544,7 +558,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Hatari !
 Réalisation : Howard Hawks
@@ -593,7 +609,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>John Wayne (V.F : Raymond Loyer) : Sean Mercer
 Hardy Kruger (V.F : Roger Rudel) : Kurt Müller
@@ -633,7 +651,9 @@
           <t>Musiques du film</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Musiques composées par Henry Mancini ; disque vinyle 33 tours paru en 1963 chez RCA (réf. RCA 430-541), puis en CD avec un titre bonus.
 1. Theme From « Hatari »
@@ -673,15 +693,17 @@
           <t>À noter</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Le film fut entièrement tourné au Arusha National Park au Tanganyika (la partie continentale de l'actuelle Tanzanie)[1].
-Le tournage dura 6 mois — du 28 novembre 1960 au 24 mai 1961 — et fut très agréable d’après Gérard Blain[1].
-Au fur et à mesure du tournage, les animaux devenaient des acteurs à part entière, le guépard apprivoisé Sonia circulait librement au milieu des acteurs ainsi que les autruches, les singes ou encore la hyène et les éléphanteaux[1].
-Les scènes de chasses ont été vécues par les acteurs eux-mêmes et jamais l'un d'entre eux ne fut doublé quel que soit le danger[1]. Il faut cependant remarquer que John Wayne avait comme doublure Chuck Roberson.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le film fut entièrement tourné au Arusha National Park au Tanganyika (la partie continentale de l'actuelle Tanzanie).
+Le tournage dura 6 mois — du 28 novembre 1960 au 24 mai 1961 — et fut très agréable d’après Gérard Blain.
+Au fur et à mesure du tournage, les animaux devenaient des acteurs à part entière, le guépard apprivoisé Sonia circulait librement au milieu des acteurs ainsi que les autruches, les singes ou encore la hyène et les éléphanteaux.
+Les scènes de chasses ont été vécues par les acteurs eux-mêmes et jamais l'un d'entre eux ne fut doublé quel que soit le danger. Il faut cependant remarquer que John Wayne avait comme doublure Chuck Roberson.
 Cet article se contredit (Mai 2024).
 Vous pouvez y remédier.
-Durant le tournage, John Wayne dut abattre un éléphant qui les chargeait. Bien que filmée, cette scène ne fut pas retenue au montage final afin de ne pas choquer les amis des bêtes qui sont nombreux chez les fans de l'acteur[1].</t>
+Durant le tournage, John Wayne dut abattre un éléphant qui les chargeait. Bien que filmée, cette scène ne fut pas retenue au montage final afin de ne pas choquer les amis des bêtes qui sont nombreux chez les fans de l'acteur.</t>
         </is>
       </c>
     </row>
@@ -709,12 +731,14 @@
           <t>DVD / Blu-ray</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Le film est sorti sur les supports DVD et Blu-ray en France :
-Hatari ! (DVD-9 Keep Case) édité par Paramount Pictures et distribué par Universal Pictures Vidéo France le 4 décembre 2003. Le ratio écran est en 1.78:1 panoramique 16:9. L'audio est en Anglais, Français, Allemand, Italien et Espagnol Mono Dolby Digital avec présence de sous-titres anglais, arabes, bulgares, croates, tchèques, danois, hollandais, finnois, grecs, hébreux, hongrois, islandais, norvégiens, polonais, portugais, roumains, serbes, slovènes, suédois et turcs. En supplément la bande annonce originale du film. Il s'agit d'une édition Zone 2 Pal[2].
-La dernière séance : Hatari ! (DVD-9 Keep Case sous fourreau cartonné avec livret d'anecdotes d'Eddy Mitchell) édité et distribué par Paramount Home Entertainment France le 25 octobre 2006. Les caractéristiques techniques sont les mêmes que la précédente édition[3].
-Hatari ! (BD-50 Blu-ray) édité par Paramount Pictures et distribué par Universal Pictures Vidéo France le 11 septembre 2013. Le ratio écran est en 1.78:1 panoramique 16:9 natif 1080p. L'audio est en Anglais 1.0 Dolby True HD, Français, Espagnol, Allemand, Portugais et Japonais 1.0 Dolby Digital avec présence de français, anglais, japonais, espagnols, allemands, suédois, finlandais, norvégiens, danois, néerlandais, portugais, cantonais, croates, tchèques, hindis, coréens, mandarins, roumains, serbes, slovènes et turcs. Il s'agit d'une édition zone A, B et C[4].</t>
+Hatari ! (DVD-9 Keep Case) édité par Paramount Pictures et distribué par Universal Pictures Vidéo France le 4 décembre 2003. Le ratio écran est en 1.78:1 panoramique 16:9. L'audio est en Anglais, Français, Allemand, Italien et Espagnol Mono Dolby Digital avec présence de sous-titres anglais, arabes, bulgares, croates, tchèques, danois, hollandais, finnois, grecs, hébreux, hongrois, islandais, norvégiens, polonais, portugais, roumains, serbes, slovènes, suédois et turcs. En supplément la bande annonce originale du film. Il s'agit d'une édition Zone 2 Pal.
+La dernière séance : Hatari ! (DVD-9 Keep Case sous fourreau cartonné avec livret d'anecdotes d'Eddy Mitchell) édité et distribué par Paramount Home Entertainment France le 25 octobre 2006. Les caractéristiques techniques sont les mêmes que la précédente édition.
+Hatari ! (BD-50 Blu-ray) édité par Paramount Pictures et distribué par Universal Pictures Vidéo France le 11 septembre 2013. Le ratio écran est en 1.78:1 panoramique 16:9 natif 1080p. L'audio est en Anglais 1.0 Dolby True HD, Français, Espagnol, Allemand, Portugais et Japonais 1.0 Dolby Digital avec présence de français, anglais, japonais, espagnols, allemands, suédois, finlandais, norvégiens, danois, néerlandais, portugais, cantonais, croates, tchèques, hindis, coréens, mandarins, roumains, serbes, slovènes et turcs. Il s'agit d'une édition zone A, B et C.</t>
         </is>
       </c>
     </row>
